--- a/Data/quiz/e3v3/berlin_marathon.xlsx
+++ b/Data/quiz/e3v3/berlin_marathon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalarson\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\Data\quiz\e3v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{138ADE5C-C759-4354-AC71-7BFA822C7CB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8829EF1-DDFC-428B-8FE4-D7B49448B509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{310FA6AF-8FBB-4DE0-A8A4-78AD2877A4A1}"/>
   </bookViews>
@@ -33,10 +33,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Female</t>
+    <t>female</t>
   </si>
   <si>
-    <t>Male</t>
+    <t>male</t>
   </si>
 </sst>
 </file>
@@ -390,9 +390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35834C0-2523-4372-82AE-E87415D73865}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Data/quiz/e3v3/berlin_marathon.xlsx
+++ b/Data/quiz/e3v3/berlin_marathon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\Data\quiz\e3v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\docs\Data\quiz\e3v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8829EF1-DDFC-428B-8FE4-D7B49448B509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5A7F21-662B-4684-B669-B0932A7AE04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{310FA6AF-8FBB-4DE0-A8A4-78AD2877A4A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{310FA6AF-8FBB-4DE0-A8A4-78AD2877A4A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,9 +392,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>253.7167</v>
       </c>
@@ -410,7 +410,7 @@
         <v>273.13330000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>287.2833</v>
       </c>
@@ -418,7 +418,7 @@
         <v>218.63329999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>233.73330000000001</v>
       </c>
@@ -426,7 +426,7 @@
         <v>269.08330000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>331.6</v>
       </c>
@@ -434,7 +434,7 @@
         <v>229.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>230.5667</v>
       </c>
@@ -442,7 +442,7 @@
         <v>230.7167</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>253.88329999999999</v>
       </c>
@@ -450,7 +450,7 @@
         <v>248.13329999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>318.8</v>
       </c>
@@ -458,7 +458,7 @@
         <v>208.98330000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>262.25</v>
       </c>
@@ -466,7 +466,7 @@
         <v>347.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>234.8</v>
       </c>
@@ -474,7 +474,7 @@
         <v>177.38329999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>229.4</v>
       </c>
@@ -482,7 +482,7 @@
         <v>231.1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>232.13329999999999</v>
       </c>
@@ -490,7 +490,7 @@
         <v>247.91669999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>207.1</v>
       </c>
@@ -498,7 +498,7 @@
         <v>240.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>303.23329999999999</v>
       </c>
@@ -506,7 +506,7 @@
         <v>311.10000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>241.65</v>
       </c>
@@ -514,7 +514,7 @@
         <v>228.1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>197.9667</v>
       </c>
@@ -522,7 +522,7 @@
         <v>226.05</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>268.7</v>
       </c>
@@ -530,7 +530,7 @@
         <v>263.05</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>339.61669999999998</v>
       </c>
@@ -538,7 +538,7 @@
         <v>219.51669999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>216.61670000000001</v>
       </c>
@@ -546,7 +546,7 @@
         <v>170.6833</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>229.2</v>
       </c>
@@ -554,7 +554,7 @@
         <v>300.93329999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>279.4667</v>
       </c>
@@ -562,7 +562,7 @@
         <v>217.2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>265.33330000000001</v>
       </c>
@@ -570,7 +570,7 @@
         <v>299.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>244.55</v>
       </c>
@@ -578,7 +578,7 @@
         <v>233.15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>199.26669999999999</v>
       </c>
@@ -586,7 +586,7 @@
         <v>235.13329999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>259.14999999999998</v>
       </c>
@@ -594,7 +594,7 @@
         <v>332.55</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>310.63330000000002</v>
       </c>
@@ -602,7 +602,7 @@
         <v>209.2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>197.1833</v>
       </c>
@@ -610,7 +610,7 @@
         <v>211.3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>270.39999999999998</v>
       </c>
@@ -618,7 +618,7 @@
         <v>237.36670000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>324.10000000000002</v>
       </c>
@@ -626,7 +626,7 @@
         <v>198.51669999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>214.51669999999999</v>
       </c>
@@ -634,7 +634,7 @@
         <v>257.68329999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>287.68329999999997</v>
       </c>
@@ -642,7 +642,7 @@
         <v>149.48330000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>204.2</v>
       </c>
@@ -650,7 +650,7 @@
         <v>265.60000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>221.4333</v>
       </c>
@@ -658,7 +658,7 @@
         <v>294.2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>241.75</v>
       </c>
@@ -666,7 +666,7 @@
         <v>206.0667</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>297.76670000000001</v>
       </c>
@@ -674,7 +674,7 @@
         <v>251.08330000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>267.51670000000001</v>
       </c>
@@ -682,7 +682,7 @@
         <v>183.86670000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>274.51670000000001</v>
       </c>
@@ -690,7 +690,7 @@
         <v>237.15</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>287.63330000000002</v>
       </c>
@@ -698,7 +698,7 @@
         <v>227.36670000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>273.68329999999997</v>
       </c>
@@ -706,7 +706,7 @@
         <v>313.48329999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>264.75</v>
       </c>
@@ -714,7 +714,7 @@
         <v>220.55</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>309.10000000000002</v>
       </c>
